--- a/PROJEKTPLAN_PAD2.xlsx
+++ b/PROJEKTPLAN_PAD2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B538635F-3577-4F05-A72F-7A9E881542A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49904D21-A3CB-4057-BA0D-0BEE7A510654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,6 +1191,18 @@
     <xf numFmtId="172" fontId="8" fillId="44" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1198,18 +1210,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1764,9 +1764,9 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1837,117 +1837,117 @@
       <c r="B3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83">
+      <c r="D3" s="82"/>
+      <c r="E3" s="80">
         <v>43955</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="77">
         <f>I5</f>
         <v>43955</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="80">
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="77">
         <f>P5</f>
         <v>43962</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="80">
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="77">
         <f>W5</f>
         <v>43969</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="80">
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="77">
         <f>AD5</f>
         <v>43976</v>
       </c>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="80">
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="77">
         <f>AK5</f>
         <v>43983</v>
       </c>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="80">
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="77">
         <f>AR5</f>
         <v>43990</v>
       </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="80">
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="79"/>
+      <c r="AY4" s="77">
         <f>AY5</f>
         <v>43997</v>
       </c>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="80">
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="79"/>
+      <c r="BF4" s="77">
         <f>BF5</f>
         <v>44004</v>
       </c>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="82"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="79"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="I5" s="62">
         <f>_xlfn.SINGLE(Projekt_Start)-WEEKDAY(_xlfn.SINGLE(Projekt_Start),1)+2+7*(_xlfn.SINGLE(Woche_anzeigen)-1)</f>
         <v>43955</v>
@@ -2896,7 +2896,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="21">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E13" s="69">
         <f>F12+1</f>
@@ -3131,7 +3131,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="69">
         <f>E15+2</f>
@@ -4504,6 +4504,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4511,11 +4516,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">

--- a/PROJEKTPLAN_PAD2.xlsx
+++ b/PROJEKTPLAN_PAD2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49904D21-A3CB-4057-BA0D-0BEE7A510654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EED0FB3-4F4A-4203-BEC5-A2EFF73994CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,6 +1191,13 @@
     <xf numFmtId="172" fontId="8" fillId="44" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1203,13 +1210,6 @@
     <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1766,7 +1766,7 @@
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1837,117 +1837,117 @@
       <c r="B3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="80">
+      <c r="D3" s="78"/>
+      <c r="E3" s="83">
         <v>43955</v>
       </c>
-      <c r="F3" s="80"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="80">
         <f>I5</f>
         <v>43955</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="77">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="80">
         <f>P5</f>
         <v>43962</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="77">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="80">
         <f>W5</f>
         <v>43969</v>
       </c>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="77">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="80">
         <f>AD5</f>
         <v>43976</v>
       </c>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="77">
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="80">
         <f>AK5</f>
         <v>43983</v>
       </c>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="77">
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="80">
         <f>AR5</f>
         <v>43990</v>
       </c>
-      <c r="AS4" s="78"/>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="77">
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="80">
         <f>AY5</f>
         <v>43997</v>
       </c>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="77">
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="80">
         <f>BF5</f>
         <v>44004</v>
       </c>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="78"/>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="79"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="82"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="I5" s="62">
         <f>_xlfn.SINGLE(Projekt_Start)-WEEKDAY(_xlfn.SINGLE(Projekt_Start),1)+2+7*(_xlfn.SINGLE(Woche_anzeigen)-1)</f>
         <v>43955</v>
@@ -2815,7 +2815,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="69">
         <f>F11</f>
@@ -4504,11 +4504,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4516,6 +4511,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
